--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/51_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/51_455-55R22.xlsx
@@ -689,49 +689,49 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1811435519263472</v>
+        <v>0.2391870113389067</v>
       </c>
       <c r="E2">
-        <v>0.009316160306502454</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2010525851117242</v>
+        <v>0.273810080885443</v>
       </c>
       <c r="G2">
-        <v>0.03145834454140034</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0859089834946998</v>
+        <v>0.07356806564017038</v>
       </c>
       <c r="I2">
-        <v>0.008095205408709109</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.04550472331419719</v>
+        <v>0.003302498388347175</v>
       </c>
       <c r="L2">
-        <v>0.01330009693577723</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.06774056254240343</v>
+        <v>0.04197203099976744</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.04360571346702332</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1937244977383105</v>
+        <v>0.2610660728560049</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1051872775479908</v>
+        <v>0.1070942398913603</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.007797359641352123</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.006164938023562178</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -799,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08998202977656139</v>
+        <v>0.08601863211617471</v>
       </c>
       <c r="E3">
-        <v>0.1338324908650348</v>
+        <v>0.1249865908397622</v>
       </c>
       <c r="F3">
-        <v>0.3264599260158483</v>
+        <v>0.2961660438184345</v>
       </c>
       <c r="G3">
-        <v>0.02527205564436814</v>
+        <v>0.02851374987787695</v>
       </c>
       <c r="H3">
-        <v>0.02884738546717558</v>
+        <v>0.03169098682134422</v>
       </c>
       <c r="I3">
-        <v>0.006231418202691876</v>
+        <v>0.01159318039056837</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.04656976059326211</v>
+        <v>0.04744007509213569</v>
       </c>
       <c r="N3">
-        <v>0.003754004880391086</v>
+        <v>0.009391613116511594</v>
       </c>
       <c r="O3">
-        <v>0.006369942228464359</v>
+        <v>0.01171628054469528</v>
       </c>
       <c r="P3">
-        <v>0.1483655530225822</v>
+        <v>0.1379014782143788</v>
       </c>
       <c r="Q3">
-        <v>0.004842568737515367</v>
+        <v>0.01035897150681045</v>
       </c>
       <c r="R3">
-        <v>0.07630433114304561</v>
+        <v>0.07386386834506775</v>
       </c>
       <c r="S3">
-        <v>0.03816950395917588</v>
+        <v>0.03997513981758598</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.02082600240543147</v>
+        <v>0.02456273967645177</v>
       </c>
       <c r="Y3">
-        <v>0.001665447083112227</v>
+        <v>0.00753560449046814</v>
       </c>
       <c r="Z3">
-        <v>0.0004923665354176646</v>
+        <v>0.006493139868037495</v>
       </c>
       <c r="AA3">
-        <v>0.02427883158089236</v>
+        <v>0.0276311157310955</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.0009514110356515946</v>
       </c>
       <c r="AD3">
-        <v>0.01773638185902971</v>
+        <v>0.02181713101156638</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.001392247685382626</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -909,55 +909,55 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003583621028066395</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2587782657676923</v>
+        <v>0.3017324046133135</v>
       </c>
       <c r="F4">
-        <v>0.1425581228677392</v>
+        <v>0.1551165407296093</v>
       </c>
       <c r="G4">
-        <v>0.07109037717135615</v>
+        <v>0.06495742533326858</v>
       </c>
       <c r="H4">
-        <v>0.04485901163006848</v>
+        <v>0.03186562021480598</v>
       </c>
       <c r="I4">
-        <v>0.02864700980879237</v>
+        <v>0.01141360051322342</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05497789896731796</v>
+        <v>0.04463095823172651</v>
       </c>
       <c r="L4">
-        <v>0.005755054952078799</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.03053889852826559</v>
+        <v>0.01380028574743605</v>
       </c>
       <c r="N4">
-        <v>0.01959962402452297</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.1835952202584066</v>
+        <v>0.2068863057211376</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.1540364486225093</v>
+        <v>0.1695968588954793</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001980446373183933</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1019,49 +1019,49 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2100262200267631</v>
+        <v>0.251871044800078</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1831355023249108</v>
+        <v>0.2143656729330891</v>
       </c>
       <c r="G5">
-        <v>0.05170601472930404</v>
+        <v>0.03105662699336288</v>
       </c>
       <c r="H5">
-        <v>0.07531233250480017</v>
+        <v>0.06398113783746388</v>
       </c>
       <c r="I5">
-        <v>0.001215943094987203</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02943893810326729</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.009310019696327563</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.08013640094626159</v>
+        <v>0.07070942537574532</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.04278807937289045</v>
+        <v>0.01861848809590157</v>
       </c>
       <c r="P5">
-        <v>0.188164921075956</v>
+        <v>0.2213803693284837</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1212251315524002</v>
+        <v>0.1280172346358757</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.003315982381709649</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.004224514190421797</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1132,52 +1132,52 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2659551940545829</v>
+        <v>0.2981061851141992</v>
       </c>
       <c r="F6">
-        <v>0.1583131664833482</v>
+        <v>0.172484866741677</v>
       </c>
       <c r="G6">
-        <v>0.07690656275541022</v>
+        <v>0.07748103677604856</v>
       </c>
       <c r="H6">
-        <v>0.05525486747094241</v>
+        <v>0.05221289042089929</v>
       </c>
       <c r="I6">
-        <v>0.0253837366350721</v>
+        <v>0.01735242818743886</v>
       </c>
       <c r="J6">
-        <v>0.006591238131961781</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0458310038727204</v>
+        <v>0.04121497263652796</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01051483876344519</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.03683909674025296</v>
+        <v>0.03072116037610466</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1571572767149673</v>
+        <v>0.1711359103918792</v>
       </c>
       <c r="Q6">
-        <v>0.01327963174575682</v>
+        <v>0.003226592319949005</v>
       </c>
       <c r="R6">
-        <v>0.1258400449456436</v>
+        <v>0.1345878070961029</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.01035362388352389</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0117797178023723</v>
+        <v>0.001476149939173522</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1239,25 +1239,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3966850952571163</v>
+        <v>0.5665935026793351</v>
       </c>
       <c r="E7">
-        <v>0.07340807219789429</v>
+        <v>0.06699335029914194</v>
       </c>
       <c r="F7">
-        <v>0.1234173875739932</v>
+        <v>0.1442789592356951</v>
       </c>
       <c r="G7">
-        <v>0.005452763380927671</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.04655882591198395</v>
+        <v>0.02549987387203189</v>
       </c>
       <c r="I7">
-        <v>0.06831403400845575</v>
+        <v>0.05912090012748901</v>
       </c>
       <c r="J7">
-        <v>0.001781543527015529</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1266,25 +1266,25 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.08440226222725676</v>
+        <v>0.08398403822984608</v>
       </c>
       <c r="N7">
-        <v>0.02245710118435075</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05576192494876431</v>
+        <v>0.03972256634066175</v>
       </c>
       <c r="P7">
-        <v>0.01534087875009338</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0389925769536983</v>
+        <v>0.01380680921579896</v>
       </c>
       <c r="R7">
-        <v>0.02890521234023048</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.03005858411969797</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.008463737618521318</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1349,25 +1349,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05287209262126029</v>
+        <v>0.03566485971193912</v>
       </c>
       <c r="E8">
-        <v>0.2589092316006522</v>
+        <v>0.351408274325702</v>
       </c>
       <c r="F8">
-        <v>0.1105343306610542</v>
+        <v>0.1240298604256073</v>
       </c>
       <c r="G8">
-        <v>0.1029460226101539</v>
+        <v>0.112401091423083</v>
       </c>
       <c r="H8">
-        <v>0.003185353482731599</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.09163471758794793</v>
+        <v>0.09506698316890877</v>
       </c>
       <c r="J8">
-        <v>0.03365939955676848</v>
+        <v>0.006222200285787989</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1376,34 +1376,34 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.009451795512842353</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.06420264677886012</v>
+        <v>0.05302846647190568</v>
       </c>
       <c r="O8">
-        <v>0.02959912692492676</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.05852746589255445</v>
+        <v>0.04433148591554035</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.07626245564294007</v>
+        <v>0.0715096259812832</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.09898902267904222</v>
+        <v>0.1063371522902425</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0007743736521005326</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.008451964796164941</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1459,25 +1459,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04450814198780472</v>
+        <v>0.03958270478928626</v>
       </c>
       <c r="E9">
-        <v>0.2439977664929053</v>
+        <v>0.2783759919859862</v>
       </c>
       <c r="F9">
-        <v>0.1706137562844698</v>
+        <v>0.1905337843081605</v>
       </c>
       <c r="G9">
-        <v>0.0978119478697622</v>
+        <v>0.1033884844543934</v>
       </c>
       <c r="H9">
-        <v>0.008218805467305275</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.08669450184097142</v>
+        <v>0.09008066712287618</v>
       </c>
       <c r="J9">
-        <v>0.04004995774838552</v>
+        <v>0.03424616424438083</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1486,28 +1486,28 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.01144046656020129</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.0575634271056786</v>
+        <v>0.05521015637390515</v>
       </c>
       <c r="O9">
-        <v>0.01783200429529266</v>
+        <v>0.007650805448105874</v>
       </c>
       <c r="P9">
-        <v>0.05892531600080149</v>
+        <v>0.05684036609969848</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.07597193546093486</v>
+        <v>0.07724552905779711</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.06395918067122049</v>
+        <v>0.06286600825996005</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.004542132052364293</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.01476483394038115</v>
+        <v>0.003979337855449883</v>
       </c>
       <c r="AF9">
-        <v>0.003105826221520902</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1569,25 +1569,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2317329609086746</v>
+        <v>0.2913650367721704</v>
       </c>
       <c r="E10">
-        <v>0.01170466106009448</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2649729984321059</v>
+        <v>0.3381580220048478</v>
       </c>
       <c r="G10">
-        <v>0.06281743792346821</v>
+        <v>0.0535776525959324</v>
       </c>
       <c r="H10">
-        <v>0.009292434981503643</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.07255515830715882</v>
+        <v>0.0672857299647614</v>
       </c>
       <c r="J10">
-        <v>0.01989593753307566</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1596,28 +1596,28 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.1332142367769221</v>
+        <v>0.1526773111584532</v>
       </c>
       <c r="N10">
-        <v>0.02475781907567404</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01101032176707136</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.04728785025622611</v>
+        <v>0.03171619212463826</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.05120330247964101</v>
+        <v>0.03722809017650888</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.0007568161268148893</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>8.452441293021465E-05</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.00820505300963556</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1647,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.04464229468810305</v>
+        <v>0.0279919652026877</v>
       </c>
       <c r="AE10">
-        <v>0.005866192260900499</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1679,55 +1679,55 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03805501146719636</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2267380255414504</v>
+        <v>0.4362252736432888</v>
       </c>
       <c r="F11">
-        <v>0.104722312061955</v>
+        <v>0.1294044917899269</v>
       </c>
       <c r="G11">
-        <v>0.1147664063805396</v>
+        <v>0.1546613770218026</v>
       </c>
       <c r="H11">
-        <v>0.02884726293371026</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.09399243745294783</v>
+        <v>0.1024231430534189</v>
       </c>
       <c r="J11">
-        <v>0.03328989730703729</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0006455947527922095</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.08080881588440104</v>
+        <v>0.06927160083012872</v>
       </c>
       <c r="O11">
-        <v>0.04429487852195369</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.06576574229156062</v>
+        <v>0.03144427949902335</v>
       </c>
       <c r="Q11">
-        <v>0.01407809452326945</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.05326106065055083</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.08371115888020184</v>
+        <v>0.07656983416241073</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.01185070516501977</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.005172596185414003</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1912,82 +1912,82 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1811435519263472</v>
+        <v>0.2391870113389067</v>
       </c>
       <c r="E2">
-        <v>0.1904597122328496</v>
+        <v>0.2391870113389067</v>
       </c>
       <c r="F2">
-        <v>0.3915122973445738</v>
+        <v>0.5129970922243497</v>
       </c>
       <c r="G2">
-        <v>0.4229706418859741</v>
+        <v>0.5129970922243497</v>
       </c>
       <c r="H2">
-        <v>0.5088796253806739</v>
+        <v>0.5865651578645201</v>
       </c>
       <c r="I2">
-        <v>0.516974830789383</v>
+        <v>0.5865651578645201</v>
       </c>
       <c r="J2">
-        <v>0.516974830789383</v>
+        <v>0.5865651578645201</v>
       </c>
       <c r="K2">
-        <v>0.5624795541035802</v>
+        <v>0.5898676562528673</v>
       </c>
       <c r="L2">
-        <v>0.5757796510393575</v>
+        <v>0.5898676562528673</v>
       </c>
       <c r="M2">
-        <v>0.6435202135817609</v>
+        <v>0.6318396872526347</v>
       </c>
       <c r="N2">
-        <v>0.6435202135817609</v>
+        <v>0.6318396872526347</v>
       </c>
       <c r="O2">
-        <v>0.6871259270487843</v>
+        <v>0.6318396872526347</v>
       </c>
       <c r="P2">
-        <v>0.8808504247870947</v>
+        <v>0.8929057601086396</v>
       </c>
       <c r="Q2">
-        <v>0.8808504247870947</v>
+        <v>0.8929057601086396</v>
       </c>
       <c r="R2">
-        <v>0.9860377023350856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S2">
-        <v>0.9860377023350856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T2">
-        <v>0.9860377023350856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U2">
-        <v>0.9860377023350856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V2">
-        <v>0.9860377023350856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W2">
-        <v>0.9860377023350856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X2">
-        <v>0.9938350619764377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.9938350619764377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.9938350619764377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.9938350619764377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.9938350619764377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.9938350619764377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD2">
         <v>0.9999999999999999</v>
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08998202977656139</v>
+        <v>0.08601863211617471</v>
       </c>
       <c r="E3">
-        <v>0.2238145206415962</v>
+        <v>0.2110052229559369</v>
       </c>
       <c r="F3">
-        <v>0.5502744466574445</v>
+        <v>0.5071712667743714</v>
       </c>
       <c r="G3">
-        <v>0.5755465023018127</v>
+        <v>0.5356850166522483</v>
       </c>
       <c r="H3">
-        <v>0.6043938877689883</v>
+        <v>0.5673760034735925</v>
       </c>
       <c r="I3">
-        <v>0.6106253059716802</v>
+        <v>0.5789691838641609</v>
       </c>
       <c r="J3">
-        <v>0.6106253059716802</v>
+        <v>0.5789691838641609</v>
       </c>
       <c r="K3">
-        <v>0.6106253059716802</v>
+        <v>0.5789691838641609</v>
       </c>
       <c r="L3">
-        <v>0.6106253059716802</v>
+        <v>0.5789691838641609</v>
       </c>
       <c r="M3">
-        <v>0.6571950665649423</v>
+        <v>0.6264092589562965</v>
       </c>
       <c r="N3">
-        <v>0.6609490714453334</v>
+        <v>0.6358008720728081</v>
       </c>
       <c r="O3">
-        <v>0.6673190136737978</v>
+        <v>0.6475171526175034</v>
       </c>
       <c r="P3">
-        <v>0.8156845666963799</v>
+        <v>0.7854186308318822</v>
       </c>
       <c r="Q3">
-        <v>0.8205271354338952</v>
+        <v>0.7957776023386927</v>
       </c>
       <c r="R3">
-        <v>0.8968314665769408</v>
+        <v>0.8696414706837604</v>
       </c>
       <c r="S3">
-        <v>0.9350009705361166</v>
+        <v>0.9096166105013463</v>
       </c>
       <c r="T3">
-        <v>0.9350009705361166</v>
+        <v>0.9096166105013463</v>
       </c>
       <c r="U3">
-        <v>0.9350009705361166</v>
+        <v>0.9096166105013463</v>
       </c>
       <c r="V3">
-        <v>0.9350009705361166</v>
+        <v>0.9096166105013463</v>
       </c>
       <c r="W3">
-        <v>0.9350009705361166</v>
+        <v>0.9096166105013463</v>
       </c>
       <c r="X3">
-        <v>0.9558269729415481</v>
+        <v>0.9341793501777981</v>
       </c>
       <c r="Y3">
-        <v>0.9574924200246603</v>
+        <v>0.9417149546682662</v>
       </c>
       <c r="Z3">
-        <v>0.9579847865600779</v>
+        <v>0.9482080945363036</v>
       </c>
       <c r="AA3">
-        <v>0.9822636181409703</v>
+        <v>0.9758392102673991</v>
       </c>
       <c r="AB3">
-        <v>0.9822636181409703</v>
+        <v>0.9758392102673991</v>
       </c>
       <c r="AC3">
-        <v>0.9822636181409703</v>
+        <v>0.9767906213030506</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.998607752314617</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.998607752314617</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.998607752314617</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.998607752314617</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,52 +2132,52 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003583621028066395</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2623618867957587</v>
+        <v>0.3017324046133135</v>
       </c>
       <c r="F4">
-        <v>0.4049200096634978</v>
+        <v>0.4568489453429228</v>
       </c>
       <c r="G4">
-        <v>0.476010386834854</v>
+        <v>0.5218063706761913</v>
       </c>
       <c r="H4">
-        <v>0.5208693984649224</v>
+        <v>0.5536719908909973</v>
       </c>
       <c r="I4">
-        <v>0.5495164082737148</v>
+        <v>0.5650855914042207</v>
       </c>
       <c r="J4">
-        <v>0.5495164082737148</v>
+        <v>0.5650855914042207</v>
       </c>
       <c r="K4">
-        <v>0.6044943072410328</v>
+        <v>0.6097165496359471</v>
       </c>
       <c r="L4">
-        <v>0.6102493621931117</v>
+        <v>0.6097165496359471</v>
       </c>
       <c r="M4">
-        <v>0.6407882607213773</v>
+        <v>0.6235168353833832</v>
       </c>
       <c r="N4">
-        <v>0.6603878847459003</v>
+        <v>0.6235168353833832</v>
       </c>
       <c r="O4">
-        <v>0.6603878847459003</v>
+        <v>0.6235168353833832</v>
       </c>
       <c r="P4">
-        <v>0.8439831050043068</v>
+        <v>0.8304031411045207</v>
       </c>
       <c r="Q4">
-        <v>0.8439831050043068</v>
+        <v>0.8304031411045207</v>
       </c>
       <c r="R4">
-        <v>0.9980195536268162</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.9980195536268162</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2100262200267631</v>
+        <v>0.251871044800078</v>
       </c>
       <c r="E5">
-        <v>0.2100262200267631</v>
+        <v>0.251871044800078</v>
       </c>
       <c r="F5">
-        <v>0.3931617223516739</v>
+        <v>0.4662367177331671</v>
       </c>
       <c r="G5">
-        <v>0.4448677370809779</v>
+        <v>0.49729334472653</v>
       </c>
       <c r="H5">
-        <v>0.5201800695857781</v>
+        <v>0.5612744825639938</v>
       </c>
       <c r="I5">
-        <v>0.5213960126807653</v>
+        <v>0.5612744825639938</v>
       </c>
       <c r="J5">
-        <v>0.5213960126807653</v>
+        <v>0.5612744825639938</v>
       </c>
       <c r="K5">
-        <v>0.5508349507840326</v>
+        <v>0.5612744825639938</v>
       </c>
       <c r="L5">
-        <v>0.5601449704803602</v>
+        <v>0.5612744825639938</v>
       </c>
       <c r="M5">
-        <v>0.6402813714266218</v>
+        <v>0.6319839079397391</v>
       </c>
       <c r="N5">
-        <v>0.6402813714266218</v>
+        <v>0.6319839079397391</v>
       </c>
       <c r="O5">
-        <v>0.6830694507995122</v>
+        <v>0.6506023960356407</v>
       </c>
       <c r="P5">
-        <v>0.8712343718754681</v>
+        <v>0.8719827653641243</v>
       </c>
       <c r="Q5">
-        <v>0.8712343718754681</v>
+        <v>0.8719827653641243</v>
       </c>
       <c r="R5">
-        <v>0.9924595034278684</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.9924595034278684</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.9924595034278684</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.9924595034278684</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9924595034278684</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9924595034278684</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.995775485809578</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.995775485809578</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.995775485809578</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.995775485809578</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.995775485809578</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.995775485809578</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2355,79 +2355,79 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2659551940545829</v>
+        <v>0.2981061851141992</v>
       </c>
       <c r="F6">
-        <v>0.4242683605379312</v>
+        <v>0.4705910518558762</v>
       </c>
       <c r="G6">
-        <v>0.5011749232933413</v>
+        <v>0.5480720886319248</v>
       </c>
       <c r="H6">
-        <v>0.5564297907642838</v>
+        <v>0.6002849790528241</v>
       </c>
       <c r="I6">
-        <v>0.5818135273993559</v>
+        <v>0.6176374072402629</v>
       </c>
       <c r="J6">
-        <v>0.5884047655313177</v>
+        <v>0.6176374072402629</v>
       </c>
       <c r="K6">
-        <v>0.6342357694040381</v>
+        <v>0.6588523798767909</v>
       </c>
       <c r="L6">
-        <v>0.6342357694040381</v>
+        <v>0.6588523798767909</v>
       </c>
       <c r="M6">
-        <v>0.6447506081674833</v>
+        <v>0.6588523798767909</v>
       </c>
       <c r="N6">
-        <v>0.6815897049077363</v>
+        <v>0.6895735402528955</v>
       </c>
       <c r="O6">
-        <v>0.6815897049077363</v>
+        <v>0.6895735402528955</v>
       </c>
       <c r="P6">
-        <v>0.8387469816227036</v>
+        <v>0.8607094506447748</v>
       </c>
       <c r="Q6">
-        <v>0.8520266133684604</v>
+        <v>0.8639360429647238</v>
       </c>
       <c r="R6">
-        <v>0.977866658314104</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="S6">
-        <v>0.977866658314104</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="T6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="U6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="V6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="W6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="X6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="Y6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="Z6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="AA6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="AB6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="AC6">
-        <v>0.9882202821976279</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3966850952571163</v>
+        <v>0.5665935026793351</v>
       </c>
       <c r="E7">
-        <v>0.4700931674550106</v>
+        <v>0.6335868529784769</v>
       </c>
       <c r="F7">
-        <v>0.5935105550290037</v>
+        <v>0.7778658122141721</v>
       </c>
       <c r="G7">
-        <v>0.5989633184099314</v>
+        <v>0.7778658122141721</v>
       </c>
       <c r="H7">
-        <v>0.6455221443219153</v>
+        <v>0.803365686086204</v>
       </c>
       <c r="I7">
-        <v>0.7138361783303711</v>
+        <v>0.862486586213693</v>
       </c>
       <c r="J7">
-        <v>0.7156177218573866</v>
+        <v>0.862486586213693</v>
       </c>
       <c r="K7">
-        <v>0.7156177218573866</v>
+        <v>0.862486586213693</v>
       </c>
       <c r="L7">
-        <v>0.7156177218573866</v>
+        <v>0.862486586213693</v>
       </c>
       <c r="M7">
-        <v>0.8000199840846434</v>
+        <v>0.9464706244435391</v>
       </c>
       <c r="N7">
-        <v>0.8224770852689941</v>
+        <v>0.9464706244435391</v>
       </c>
       <c r="O7">
-        <v>0.8782390102177584</v>
+        <v>0.9861931907842009</v>
       </c>
       <c r="P7">
-        <v>0.8935798889678518</v>
+        <v>0.9861931907842009</v>
       </c>
       <c r="Q7">
-        <v>0.9325724659215501</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="R7">
-        <v>0.9614776782617805</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="S7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="T7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="U7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC7">
-        <v>0.9915362623814785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,88 +2572,88 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05287209262126029</v>
+        <v>0.03566485971193912</v>
       </c>
       <c r="E8">
-        <v>0.3117813242219125</v>
+        <v>0.3870731340376412</v>
       </c>
       <c r="F8">
-        <v>0.4223156548829667</v>
+        <v>0.5111029944632485</v>
       </c>
       <c r="G8">
-        <v>0.5252616774931206</v>
+        <v>0.6235040858863314</v>
       </c>
       <c r="H8">
-        <v>0.5284470309758522</v>
+        <v>0.6235040858863314</v>
       </c>
       <c r="I8">
-        <v>0.6200817485638002</v>
+        <v>0.7185710690552403</v>
       </c>
       <c r="J8">
-        <v>0.6537411481205686</v>
+        <v>0.7247932693410283</v>
       </c>
       <c r="K8">
-        <v>0.6537411481205686</v>
+        <v>0.7247932693410283</v>
       </c>
       <c r="L8">
-        <v>0.6537411481205686</v>
+        <v>0.7247932693410283</v>
       </c>
       <c r="M8">
-        <v>0.663192943633411</v>
+        <v>0.7247932693410283</v>
       </c>
       <c r="N8">
-        <v>0.7273955904122711</v>
+        <v>0.777821735812934</v>
       </c>
       <c r="O8">
-        <v>0.7569947173371978</v>
+        <v>0.777821735812934</v>
       </c>
       <c r="P8">
-        <v>0.8155221832297522</v>
+        <v>0.8221532217284744</v>
       </c>
       <c r="Q8">
-        <v>0.8155221832297522</v>
+        <v>0.8221532217284744</v>
       </c>
       <c r="R8">
-        <v>0.8917846388726923</v>
+        <v>0.8936628477097576</v>
       </c>
       <c r="S8">
-        <v>0.8917846388726923</v>
+        <v>0.8936628477097576</v>
       </c>
       <c r="T8">
-        <v>0.9907736615517345</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.9907736615517345</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9915480352038351</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04450814198780472</v>
+        <v>0.03958270478928626</v>
       </c>
       <c r="E9">
-        <v>0.28850590848071</v>
+        <v>0.3179586967752724</v>
       </c>
       <c r="F9">
-        <v>0.4591196647651797</v>
+        <v>0.5084924810834329</v>
       </c>
       <c r="G9">
-        <v>0.556931612634942</v>
+        <v>0.6118809655378263</v>
       </c>
       <c r="H9">
-        <v>0.5651504181022472</v>
+        <v>0.6118809655378263</v>
       </c>
       <c r="I9">
-        <v>0.6518449199432186</v>
+        <v>0.7019616326607026</v>
       </c>
       <c r="J9">
-        <v>0.6918948776916041</v>
+        <v>0.7362077969050834</v>
       </c>
       <c r="K9">
-        <v>0.6918948776916041</v>
+        <v>0.7362077969050834</v>
       </c>
       <c r="L9">
-        <v>0.6918948776916041</v>
+        <v>0.7362077969050834</v>
       </c>
       <c r="M9">
-        <v>0.7033353442518053</v>
+        <v>0.7362077969050834</v>
       </c>
       <c r="N9">
-        <v>0.760898771357484</v>
+        <v>0.7914179532789886</v>
       </c>
       <c r="O9">
-        <v>0.7787307756527766</v>
+        <v>0.7990687587270945</v>
       </c>
       <c r="P9">
-        <v>0.8376560916535781</v>
+        <v>0.8559091248267929</v>
       </c>
       <c r="Q9">
-        <v>0.8376560916535781</v>
+        <v>0.8559091248267929</v>
       </c>
       <c r="R9">
-        <v>0.913628027114513</v>
+        <v>0.9331546538845901</v>
       </c>
       <c r="S9">
-        <v>0.913628027114513</v>
+        <v>0.9331546538845901</v>
       </c>
       <c r="T9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="U9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="V9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="W9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="X9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="Y9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="Z9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="AA9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="AB9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="AC9">
-        <v>0.9775872077857335</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="AD9">
-        <v>0.9821293398380978</v>
+        <v>0.9960206621445501</v>
       </c>
       <c r="AE9">
-        <v>0.996894173778479</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2317329609086746</v>
+        <v>0.2913650367721704</v>
       </c>
       <c r="E10">
-        <v>0.2434376219687691</v>
+        <v>0.2913650367721704</v>
       </c>
       <c r="F10">
-        <v>0.5084106204008749</v>
+        <v>0.6295230587770182</v>
       </c>
       <c r="G10">
-        <v>0.5712280583243431</v>
+        <v>0.6831007113729506</v>
       </c>
       <c r="H10">
-        <v>0.5805204933058468</v>
+        <v>0.6831007113729506</v>
       </c>
       <c r="I10">
-        <v>0.6530756516130056</v>
+        <v>0.7503864413377119</v>
       </c>
       <c r="J10">
-        <v>0.6729715891460812</v>
+        <v>0.7503864413377119</v>
       </c>
       <c r="K10">
-        <v>0.6729715891460812</v>
+        <v>0.7503864413377119</v>
       </c>
       <c r="L10">
-        <v>0.6729715891460812</v>
+        <v>0.7503864413377119</v>
       </c>
       <c r="M10">
-        <v>0.8061858259230034</v>
+        <v>0.9030637524961651</v>
       </c>
       <c r="N10">
-        <v>0.8309436449986775</v>
+        <v>0.9030637524961651</v>
       </c>
       <c r="O10">
-        <v>0.8419539667657489</v>
+        <v>0.9030637524961651</v>
       </c>
       <c r="P10">
-        <v>0.8892418170219749</v>
+        <v>0.9347799446208034</v>
       </c>
       <c r="Q10">
-        <v>0.8892418170219749</v>
+        <v>0.9347799446208034</v>
       </c>
       <c r="R10">
-        <v>0.9404451195016159</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="S10">
-        <v>0.9404451195016159</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="T10">
-        <v>0.9412019356284308</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="U10">
-        <v>0.9412019356284308</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="V10">
-        <v>0.9412019356284308</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="W10">
-        <v>0.9412019356284308</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="X10">
-        <v>0.941286460041361</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="Y10">
-        <v>0.941286460041361</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="Z10">
-        <v>0.941286460041361</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="AA10">
-        <v>0.9494915130509965</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="AB10">
-        <v>0.9494915130509965</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="AC10">
-        <v>0.9494915130509965</v>
+        <v>0.9720080347973122</v>
       </c>
       <c r="AD10">
-        <v>0.9941338077390995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,88 +2902,88 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03805501146719636</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2647930370086468</v>
+        <v>0.4362252736432888</v>
       </c>
       <c r="F11">
-        <v>0.3695153490706017</v>
+        <v>0.5656297654332157</v>
       </c>
       <c r="G11">
-        <v>0.4842817554511413</v>
+        <v>0.7202911424550184</v>
       </c>
       <c r="H11">
-        <v>0.5131290183848516</v>
+        <v>0.7202911424550184</v>
       </c>
       <c r="I11">
-        <v>0.6071214558377994</v>
+        <v>0.8227142855084373</v>
       </c>
       <c r="J11">
-        <v>0.6404113531448367</v>
+        <v>0.8227142855084373</v>
       </c>
       <c r="K11">
-        <v>0.6404113531448367</v>
+        <v>0.8227142855084373</v>
       </c>
       <c r="L11">
-        <v>0.6410569478976289</v>
+        <v>0.8227142855084373</v>
       </c>
       <c r="M11">
-        <v>0.6410569478976289</v>
+        <v>0.8227142855084373</v>
       </c>
       <c r="N11">
-        <v>0.7218657637820299</v>
+        <v>0.891985886338566</v>
       </c>
       <c r="O11">
-        <v>0.7661606423039836</v>
+        <v>0.891985886338566</v>
       </c>
       <c r="P11">
-        <v>0.8319263845955442</v>
+        <v>0.9234301658375894</v>
       </c>
       <c r="Q11">
-        <v>0.8460044791188137</v>
+        <v>0.9234301658375894</v>
       </c>
       <c r="R11">
-        <v>0.8992655397693645</v>
+        <v>0.9234301658375894</v>
       </c>
       <c r="S11">
-        <v>0.8992655397693645</v>
+        <v>0.9234301658375894</v>
       </c>
       <c r="T11">
-        <v>0.9829766986495664</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0.9829766986495664</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0.9829766986495664</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0.9829766986495664</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.9948274038145861</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.9948274038145861</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.9948274038145861</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.9948274038145861</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.9948274038145861</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9948274038145861</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9948274038145861</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9948274038145861</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -3066,16 +3066,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5088796253806739</v>
+        <v>0.5129970922243497</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>51</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5502744466574445</v>
+        <v>0.5071712667743714</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3148,16 +3148,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5208693984649224</v>
+        <v>0.5218063706761913</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>51</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5201800695857781</v>
+        <v>0.5612744825639938</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5011749232933413</v>
+        <v>0.5480720886319248</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3271,16 +3271,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5935105550290037</v>
+        <v>0.5665935026793351</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>51</v>
@@ -3309,19 +3309,19 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5252616774931206</v>
+        <v>0.5111029944632485</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>51</v>
@@ -3353,16 +3353,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.556931612634942</v>
+        <v>0.5084924810834329</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>51</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5084106204008749</v>
+        <v>0.6295230587770182</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3435,16 +3435,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5131290183848516</v>
+        <v>0.5656297654332157</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>51</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8808504247870947</v>
+        <v>0.8929057601086396</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8156845666963799</v>
+        <v>0.7854186308318822</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8439831050043068</v>
+        <v>0.8304031411045207</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8712343718754681</v>
+        <v>0.8719827653641243</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8387469816227036</v>
+        <v>0.8607094506447748</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -3735,16 +3735,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7138361783303711</v>
+        <v>0.7778658122141721</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>51</v>
@@ -3773,19 +3773,19 @@
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7273955904122711</v>
+        <v>0.7185710690552403</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>51</v>
@@ -3817,16 +3817,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7033353442518053</v>
+        <v>0.7019616326607026</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>51</v>
@@ -3858,16 +3858,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8061858259230034</v>
+        <v>0.7503864413377119</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>51</v>
@@ -3899,16 +3899,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7218657637820299</v>
+        <v>0.7202911424550184</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>51</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8808504247870947</v>
+        <v>0.8929057601086396</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -4035,16 +4035,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8156845666963799</v>
+        <v>0.8696414706837604</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>51</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8439831050043068</v>
+        <v>0.8304031411045207</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8712343718754681</v>
+        <v>0.8719827653641243</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8387469816227036</v>
+        <v>0.8607094506447748</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -4199,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8000199840846434</v>
+        <v>0.803365686086204</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>51</v>
@@ -4237,7 +4237,7 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -4246,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8155221832297522</v>
+        <v>0.8221532217284744</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>51</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8376560916535781</v>
+        <v>0.8559091248267929</v>
       </c>
       <c r="G9">
         <v>13</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8061858259230034</v>
+        <v>0.9030637524961651</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -4363,16 +4363,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8319263845955442</v>
+        <v>0.8227142855084373</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>51</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9860377023350856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9350009705361166</v>
+        <v>0.9096166105013463</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9980195536268162</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9924595034278684</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.977866658314104</v>
+        <v>0.9985238500608268</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9325724659215501</v>
+        <v>0.9464706244435391</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>51</v>
@@ -4701,7 +4701,7 @@
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>19</v>
@@ -4710,10 +4710,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9907736615517345</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>51</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.913628027114513</v>
+        <v>0.9331546538845901</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -4786,16 +4786,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9404451195016159</v>
+        <v>0.9030637524961651</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>51</v>
@@ -4827,16 +4827,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9829766986495664</v>
+        <v>0.9234301658375894</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>51</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/51_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/51_455-55R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>455-55R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2391870113389067</v>
+        <v>0.2134495792816247</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.273810080885443</v>
+        <v>0.2406170914667071</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00919181057470487</v>
       </c>
       <c r="H2">
-        <v>0.07356806564017038</v>
+        <v>0.08349418294383669</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -710,28 +710,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.003302498388347175</v>
+        <v>0.02835924893863941</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.04197203099976744</v>
+        <v>0.05870187921872385</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0257678939149017</v>
       </c>
       <c r="P2">
-        <v>0.2610660728560049</v>
+        <v>0.2306173139206638</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1070942398913603</v>
+        <v>0.1098009997401977</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -799,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08601863211617471</v>
+        <v>0.09423456441127903</v>
       </c>
       <c r="E3">
-        <v>0.1249865908397622</v>
+        <v>0.1582194154976511</v>
       </c>
       <c r="F3">
-        <v>0.2961660438184345</v>
+        <v>0.4392937177360471</v>
       </c>
       <c r="G3">
-        <v>0.02851374987787695</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03169098682134422</v>
+        <v>0.00502931969419195</v>
       </c>
       <c r="I3">
-        <v>0.01159318039056837</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.04744007509213569</v>
+        <v>0.03088910554801839</v>
       </c>
       <c r="N3">
-        <v>0.009391613116511594</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01171628054469528</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.1379014782143788</v>
+        <v>0.1794254825468319</v>
       </c>
       <c r="Q3">
-        <v>0.01035897150681045</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.07386386834506775</v>
+        <v>0.07427660984145061</v>
       </c>
       <c r="S3">
-        <v>0.03997513981758598</v>
+        <v>0.01863178472452991</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.02456273967645177</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.00753560449046814</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.006493139868037495</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0276311157310955</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0009514110356515946</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.02181713101156638</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.001392247685382626</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -912,31 +912,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3017324046133135</v>
+        <v>0.3149650003624415</v>
       </c>
       <c r="F4">
-        <v>0.1551165407296093</v>
+        <v>0.1581713204460294</v>
       </c>
       <c r="G4">
-        <v>0.06495742533326856</v>
+        <v>0.06175351744339048</v>
       </c>
       <c r="H4">
-        <v>0.03186562021480598</v>
+        <v>0.02636453727330397</v>
       </c>
       <c r="I4">
-        <v>0.01141360051322343</v>
+        <v>0.004492774247185013</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.04463095823172652</v>
+        <v>0.04001602265852432</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01380028574743605</v>
+        <v>0.007045138982908239</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2068863057211376</v>
+        <v>0.2135348516930171</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.1695968588954792</v>
+        <v>0.1736568368931999</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.251871044800078</v>
+        <v>0.2443469104940232</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2143656729330891</v>
+        <v>0.2088463382012462</v>
       </c>
       <c r="G5">
-        <v>0.03105662699336288</v>
+        <v>0.03533583254936181</v>
       </c>
       <c r="H5">
-        <v>0.06398113783746388</v>
+        <v>0.06650040762864799</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1040,28 +1040,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.005939296083658979</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.07070942537574532</v>
+        <v>0.07286904354049681</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.01861848809590157</v>
+        <v>0.02356255775867579</v>
       </c>
       <c r="P5">
-        <v>0.2213803693284837</v>
+        <v>0.2154860733671778</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1280172346358757</v>
+        <v>0.1271135403767112</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2981061851141992</v>
+        <v>0.3341081403915468</v>
       </c>
       <c r="F6">
-        <v>0.172484866741677</v>
+        <v>0.1847185328357171</v>
       </c>
       <c r="G6">
-        <v>0.07748103677604856</v>
+        <v>0.07173942181589185</v>
       </c>
       <c r="H6">
-        <v>0.05221289042089929</v>
+        <v>0.04169039417820153</v>
       </c>
       <c r="I6">
-        <v>0.01735242818743886</v>
+        <v>0.0002341283171150027</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.04121497263652796</v>
+        <v>0.02861160593569659</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.03072116037610466</v>
+        <v>0.01613230293474915</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1711359103918792</v>
+        <v>0.183114346043881</v>
       </c>
       <c r="Q6">
-        <v>0.003226592319949005</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1345878070961029</v>
+        <v>0.139651127547201</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001476149939173522</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1239,22 +1239,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5665935026793351</v>
+        <v>0.5337701788060026</v>
       </c>
       <c r="E7">
-        <v>0.06699335029914194</v>
+        <v>0.06949262009297948</v>
       </c>
       <c r="F7">
-        <v>0.1442789592356951</v>
+        <v>0.1413140029924113</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.02549987387203189</v>
+        <v>0.03093280411551187</v>
       </c>
       <c r="I7">
-        <v>0.05912090012748901</v>
+        <v>0.06217676574551421</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1266,25 +1266,25 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.08398403822984608</v>
+        <v>0.08528203704119353</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03972256634066175</v>
+        <v>0.04414992766161622</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01380680921579896</v>
+        <v>0.02006645932637327</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.00557938884957348</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.007235815368824022</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1349,25 +1349,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03566485971193912</v>
+        <v>0.03945477093126128</v>
       </c>
       <c r="E8">
-        <v>0.351408274325702</v>
+        <v>0.3335372902164006</v>
       </c>
       <c r="F8">
-        <v>0.1240298604256073</v>
+        <v>0.1217576815344709</v>
       </c>
       <c r="G8">
-        <v>0.112401091423083</v>
+        <v>0.1109266791250283</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.09506698316890877</v>
+        <v>0.09478173994653537</v>
       </c>
       <c r="J8">
-        <v>0.006222200285787989</v>
+        <v>0.01203196159384854</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1379,25 +1379,25 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.05302846647190568</v>
+        <v>0.05562718493423844</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.006236621926100856</v>
       </c>
       <c r="P8">
-        <v>0.04433148591554035</v>
+        <v>0.04752684195378881</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.0715096259812832</v>
+        <v>0.07284048439284049</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.1063371522902425</v>
+        <v>0.1052787434454864</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1459,25 +1459,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03958270478928626</v>
+        <v>0.02810581787535608</v>
       </c>
       <c r="E9">
-        <v>0.2783759919859862</v>
+        <v>0.3178375946313004</v>
       </c>
       <c r="F9">
-        <v>0.1905337843081605</v>
+        <v>0.2112572162486504</v>
       </c>
       <c r="G9">
-        <v>0.1033884844543934</v>
+        <v>0.1055224074566284</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.09008066712287618</v>
+        <v>0.08937581638002072</v>
       </c>
       <c r="J9">
-        <v>0.03424616424438083</v>
+        <v>0.02163090649088332</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1489,25 +1489,25 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.05521015637390515</v>
+        <v>0.0470668588951126</v>
       </c>
       <c r="O9">
-        <v>0.007650805448105874</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.05684036609969848</v>
+        <v>0.04904481885321586</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.07724552905779711</v>
+        <v>0.07380273474041839</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.06286600825996005</v>
+        <v>0.056355828428414</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.003979337855449883</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2913650367721704</v>
+        <v>0.2931518655873568</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3381580220048478</v>
+        <v>0.3404474266976619</v>
       </c>
       <c r="G10">
-        <v>0.0535776525959324</v>
+        <v>0.05281054725417352</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0672857299647614</v>
+        <v>0.06666585500336768</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.1526773111584532</v>
+        <v>0.1529745768463906</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.03171619212463826</v>
+        <v>0.03071428571968687</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.03722809017650888</v>
+        <v>0.03628538382017672</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.0279919652026877</v>
+        <v>0.02695005907118591</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1679,25 +1679,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01918891912617822</v>
       </c>
       <c r="E11">
-        <v>0.4362252736432888</v>
+        <v>0.3030778177379344</v>
       </c>
       <c r="F11">
-        <v>0.1294044917899269</v>
+        <v>0.1194952802054895</v>
       </c>
       <c r="G11">
-        <v>0.1546613770218026</v>
+        <v>0.1346074347767189</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.005335114624005701</v>
       </c>
       <c r="I11">
-        <v>0.1024231430534189</v>
+        <v>0.1033513135641969</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01201941837740135</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1709,25 +1709,25 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.06927160083012872</v>
+        <v>0.0835154856007108</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.02857730522097377</v>
       </c>
       <c r="P11">
-        <v>0.03144427949902335</v>
+        <v>0.06088196124792286</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.04206765347372184</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.07656983416241073</v>
+        <v>0.08788229604474565</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1912,46 +1912,46 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2391870113389067</v>
+        <v>0.2134495792816247</v>
       </c>
       <c r="E2">
-        <v>0.2391870113389067</v>
+        <v>0.2134495792816247</v>
       </c>
       <c r="F2">
-        <v>0.5129970922243497</v>
+        <v>0.4540666707483318</v>
       </c>
       <c r="G2">
-        <v>0.5129970922243497</v>
+        <v>0.4632584813230367</v>
       </c>
       <c r="H2">
-        <v>0.5865651578645201</v>
+        <v>0.5467526642668734</v>
       </c>
       <c r="I2">
-        <v>0.5865651578645201</v>
+        <v>0.5467526642668734</v>
       </c>
       <c r="J2">
-        <v>0.5865651578645201</v>
+        <v>0.5467526642668734</v>
       </c>
       <c r="K2">
-        <v>0.5898676562528673</v>
+        <v>0.5751119132055128</v>
       </c>
       <c r="L2">
-        <v>0.5898676562528673</v>
+        <v>0.5751119132055128</v>
       </c>
       <c r="M2">
-        <v>0.6318396872526347</v>
+        <v>0.6338137924242366</v>
       </c>
       <c r="N2">
-        <v>0.6318396872526347</v>
+        <v>0.6338137924242366</v>
       </c>
       <c r="O2">
-        <v>0.6318396872526347</v>
+        <v>0.6595816863391384</v>
       </c>
       <c r="P2">
-        <v>0.8929057601086396</v>
+        <v>0.8901990002598021</v>
       </c>
       <c r="Q2">
-        <v>0.8929057601086396</v>
+        <v>0.8901990002598021</v>
       </c>
       <c r="R2">
         <v>0.9999999999999999</v>
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08601863211617471</v>
+        <v>0.09423456441127903</v>
       </c>
       <c r="E3">
-        <v>0.2110052229559369</v>
+        <v>0.2524539799089301</v>
       </c>
       <c r="F3">
-        <v>0.5071712667743714</v>
+        <v>0.6917476976449772</v>
       </c>
       <c r="G3">
-        <v>0.5356850166522483</v>
+        <v>0.6917476976449772</v>
       </c>
       <c r="H3">
-        <v>0.5673760034735925</v>
+        <v>0.6967770173391692</v>
       </c>
       <c r="I3">
-        <v>0.5789691838641609</v>
+        <v>0.6967770173391692</v>
       </c>
       <c r="J3">
-        <v>0.5789691838641609</v>
+        <v>0.6967770173391692</v>
       </c>
       <c r="K3">
-        <v>0.5789691838641609</v>
+        <v>0.6967770173391692</v>
       </c>
       <c r="L3">
-        <v>0.5789691838641609</v>
+        <v>0.6967770173391692</v>
       </c>
       <c r="M3">
-        <v>0.6264092589562965</v>
+        <v>0.7276661228871876</v>
       </c>
       <c r="N3">
-        <v>0.6358008720728081</v>
+        <v>0.7276661228871876</v>
       </c>
       <c r="O3">
-        <v>0.6475171526175034</v>
+        <v>0.7276661228871876</v>
       </c>
       <c r="P3">
-        <v>0.7854186308318822</v>
+        <v>0.9070916054340195</v>
       </c>
       <c r="Q3">
-        <v>0.7957776023386927</v>
+        <v>0.9070916054340195</v>
       </c>
       <c r="R3">
-        <v>0.8696414706837604</v>
+        <v>0.98136821527547</v>
       </c>
       <c r="S3">
-        <v>0.9096166105013463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T3">
-        <v>0.9096166105013463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U3">
-        <v>0.9096166105013463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V3">
-        <v>0.9096166105013463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W3">
-        <v>0.9096166105013463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X3">
-        <v>0.9341793501777981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y3">
-        <v>0.9417149546682662</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.9482080945363036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.9758392102673991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.9758392102673991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.9767906213030506</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.998607752314617</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.998607752314617</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.998607752314617</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.998607752314617</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2135,43 +2135,43 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3017324046133135</v>
+        <v>0.3149650003624415</v>
       </c>
       <c r="F4">
-        <v>0.4568489453429229</v>
+        <v>0.4731363208084708</v>
       </c>
       <c r="G4">
-        <v>0.5218063706761914</v>
+        <v>0.5348898382518613</v>
       </c>
       <c r="H4">
-        <v>0.5536719908909974</v>
+        <v>0.5612543755251653</v>
       </c>
       <c r="I4">
-        <v>0.5650855914042208</v>
+        <v>0.5657471497723503</v>
       </c>
       <c r="J4">
-        <v>0.5650855914042208</v>
+        <v>0.5657471497723503</v>
       </c>
       <c r="K4">
-        <v>0.6097165496359472</v>
+        <v>0.6057631724308746</v>
       </c>
       <c r="L4">
-        <v>0.6097165496359472</v>
+        <v>0.6057631724308746</v>
       </c>
       <c r="M4">
-        <v>0.6235168353833833</v>
+        <v>0.6128083114137829</v>
       </c>
       <c r="N4">
-        <v>0.6235168353833833</v>
+        <v>0.6128083114137829</v>
       </c>
       <c r="O4">
-        <v>0.6235168353833833</v>
+        <v>0.6128083114137829</v>
       </c>
       <c r="P4">
-        <v>0.830403141104521</v>
+        <v>0.8263431631068</v>
       </c>
       <c r="Q4">
-        <v>0.830403141104521</v>
+        <v>0.8263431631068</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.251871044800078</v>
+        <v>0.2443469104940232</v>
       </c>
       <c r="E5">
-        <v>0.251871044800078</v>
+        <v>0.2443469104940232</v>
       </c>
       <c r="F5">
-        <v>0.4662367177331671</v>
+        <v>0.4531932486952693</v>
       </c>
       <c r="G5">
-        <v>0.49729334472653</v>
+        <v>0.4885290812446311</v>
       </c>
       <c r="H5">
-        <v>0.5612744825639938</v>
+        <v>0.5550294888732791</v>
       </c>
       <c r="I5">
-        <v>0.5612744825639938</v>
+        <v>0.5550294888732791</v>
       </c>
       <c r="J5">
-        <v>0.5612744825639938</v>
+        <v>0.5550294888732791</v>
       </c>
       <c r="K5">
-        <v>0.5612744825639938</v>
+        <v>0.560968784956938</v>
       </c>
       <c r="L5">
-        <v>0.5612744825639938</v>
+        <v>0.560968784956938</v>
       </c>
       <c r="M5">
-        <v>0.6319839079397391</v>
+        <v>0.6338378284974349</v>
       </c>
       <c r="N5">
-        <v>0.6319839079397391</v>
+        <v>0.6338378284974349</v>
       </c>
       <c r="O5">
-        <v>0.6506023960356407</v>
+        <v>0.6574003862561106</v>
       </c>
       <c r="P5">
-        <v>0.8719827653641243</v>
+        <v>0.8728864596232884</v>
       </c>
       <c r="Q5">
-        <v>0.8719827653641243</v>
+        <v>0.8728864596232884</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2355,100 +2355,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2981061851141992</v>
+        <v>0.3341081403915468</v>
       </c>
       <c r="F6">
-        <v>0.4705910518558762</v>
+        <v>0.5188266732272638</v>
       </c>
       <c r="G6">
-        <v>0.5480720886319248</v>
+        <v>0.5905660950431557</v>
       </c>
       <c r="H6">
-        <v>0.6002849790528241</v>
+        <v>0.6322564892213572</v>
       </c>
       <c r="I6">
-        <v>0.6176374072402629</v>
+        <v>0.6324906175384722</v>
       </c>
       <c r="J6">
-        <v>0.6176374072402629</v>
+        <v>0.6324906175384722</v>
       </c>
       <c r="K6">
-        <v>0.6588523798767909</v>
+        <v>0.6611022234741688</v>
       </c>
       <c r="L6">
-        <v>0.6588523798767909</v>
+        <v>0.6611022234741688</v>
       </c>
       <c r="M6">
-        <v>0.6588523798767909</v>
+        <v>0.6611022234741688</v>
       </c>
       <c r="N6">
-        <v>0.6895735402528955</v>
+        <v>0.6772345264089179</v>
       </c>
       <c r="O6">
-        <v>0.6895735402528955</v>
+        <v>0.6772345264089179</v>
       </c>
       <c r="P6">
-        <v>0.8607094506447748</v>
+        <v>0.8603488724527989</v>
       </c>
       <c r="Q6">
-        <v>0.8639360429647238</v>
+        <v>0.8603488724527989</v>
       </c>
       <c r="R6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.9985238500608268</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5665935026793351</v>
+        <v>0.5337701788060026</v>
       </c>
       <c r="E7">
-        <v>0.6335868529784769</v>
+        <v>0.6032627988989822</v>
       </c>
       <c r="F7">
-        <v>0.7778658122141721</v>
+        <v>0.7445768018913934</v>
       </c>
       <c r="G7">
-        <v>0.7778658122141721</v>
+        <v>0.7445768018913934</v>
       </c>
       <c r="H7">
-        <v>0.803365686086204</v>
+        <v>0.7755096060069053</v>
       </c>
       <c r="I7">
-        <v>0.862486586213693</v>
+        <v>0.8376863717524196</v>
       </c>
       <c r="J7">
-        <v>0.862486586213693</v>
+        <v>0.8376863717524196</v>
       </c>
       <c r="K7">
-        <v>0.862486586213693</v>
+        <v>0.8376863717524196</v>
       </c>
       <c r="L7">
-        <v>0.862486586213693</v>
+        <v>0.8376863717524196</v>
       </c>
       <c r="M7">
-        <v>0.9464706244435391</v>
+        <v>0.9229684087936131</v>
       </c>
       <c r="N7">
-        <v>0.9464706244435391</v>
+        <v>0.9229684087936131</v>
       </c>
       <c r="O7">
-        <v>0.9861931907842009</v>
+        <v>0.9671183364552293</v>
       </c>
       <c r="P7">
-        <v>0.9861931907842009</v>
+        <v>0.9671183364552293</v>
       </c>
       <c r="Q7">
-        <v>0.9999999999999998</v>
+        <v>0.9871847957816026</v>
       </c>
       <c r="R7">
-        <v>0.9999999999999998</v>
+        <v>0.992764184631176</v>
       </c>
       <c r="S7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,52 +2572,52 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03566485971193912</v>
+        <v>0.03945477093126128</v>
       </c>
       <c r="E8">
-        <v>0.3870731340376412</v>
+        <v>0.3729920611476619</v>
       </c>
       <c r="F8">
-        <v>0.5111029944632485</v>
+        <v>0.4947497426821328</v>
       </c>
       <c r="G8">
-        <v>0.6235040858863314</v>
+        <v>0.6056764218071611</v>
       </c>
       <c r="H8">
-        <v>0.6235040858863314</v>
+        <v>0.6056764218071611</v>
       </c>
       <c r="I8">
-        <v>0.7185710690552403</v>
+        <v>0.7004581617536965</v>
       </c>
       <c r="J8">
-        <v>0.7247932693410283</v>
+        <v>0.712490123347545</v>
       </c>
       <c r="K8">
-        <v>0.7247932693410283</v>
+        <v>0.712490123347545</v>
       </c>
       <c r="L8">
-        <v>0.7247932693410283</v>
+        <v>0.712490123347545</v>
       </c>
       <c r="M8">
-        <v>0.7247932693410283</v>
+        <v>0.712490123347545</v>
       </c>
       <c r="N8">
-        <v>0.777821735812934</v>
+        <v>0.7681173082817835</v>
       </c>
       <c r="O8">
-        <v>0.777821735812934</v>
+        <v>0.7743539302078843</v>
       </c>
       <c r="P8">
-        <v>0.8221532217284744</v>
+        <v>0.8218807721616732</v>
       </c>
       <c r="Q8">
-        <v>0.8221532217284744</v>
+        <v>0.8218807721616732</v>
       </c>
       <c r="R8">
-        <v>0.8936628477097576</v>
+        <v>0.8947212565545137</v>
       </c>
       <c r="S8">
-        <v>0.8936628477097576</v>
+        <v>0.8947212565545137</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -2682,85 +2682,85 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03958270478928626</v>
+        <v>0.02810581787535608</v>
       </c>
       <c r="E9">
-        <v>0.3179586967752724</v>
+        <v>0.3459434125066565</v>
       </c>
       <c r="F9">
-        <v>0.5084924810834329</v>
+        <v>0.5572006287553068</v>
       </c>
       <c r="G9">
-        <v>0.6118809655378263</v>
+        <v>0.6627230362119352</v>
       </c>
       <c r="H9">
-        <v>0.6118809655378263</v>
+        <v>0.6627230362119352</v>
       </c>
       <c r="I9">
-        <v>0.7019616326607026</v>
+        <v>0.7520988525919559</v>
       </c>
       <c r="J9">
-        <v>0.7362077969050834</v>
+        <v>0.7737297590828391</v>
       </c>
       <c r="K9">
-        <v>0.7362077969050834</v>
+        <v>0.7737297590828391</v>
       </c>
       <c r="L9">
-        <v>0.7362077969050834</v>
+        <v>0.7737297590828391</v>
       </c>
       <c r="M9">
-        <v>0.7362077969050834</v>
+        <v>0.7737297590828391</v>
       </c>
       <c r="N9">
-        <v>0.7914179532789886</v>
+        <v>0.8207966179779518</v>
       </c>
       <c r="O9">
-        <v>0.7990687587270945</v>
+        <v>0.8207966179779518</v>
       </c>
       <c r="P9">
-        <v>0.8559091248267929</v>
+        <v>0.8698414368311677</v>
       </c>
       <c r="Q9">
-        <v>0.8559091248267929</v>
+        <v>0.8698414368311677</v>
       </c>
       <c r="R9">
-        <v>0.9331546538845901</v>
+        <v>0.9436441715715861</v>
       </c>
       <c r="S9">
-        <v>0.9331546538845901</v>
+        <v>0.9436441715715861</v>
       </c>
       <c r="T9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9960206621445501</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2913650367721704</v>
+        <v>0.2931518655873568</v>
       </c>
       <c r="E10">
-        <v>0.2913650367721704</v>
+        <v>0.2931518655873568</v>
       </c>
       <c r="F10">
-        <v>0.6295230587770182</v>
+        <v>0.6335992922850187</v>
       </c>
       <c r="G10">
-        <v>0.6831007113729506</v>
+        <v>0.6864098395391922</v>
       </c>
       <c r="H10">
-        <v>0.6831007113729506</v>
+        <v>0.6864098395391922</v>
       </c>
       <c r="I10">
-        <v>0.7503864413377119</v>
+        <v>0.7530756945425598</v>
       </c>
       <c r="J10">
-        <v>0.7503864413377119</v>
+        <v>0.7530756945425598</v>
       </c>
       <c r="K10">
-        <v>0.7503864413377119</v>
+        <v>0.7530756945425598</v>
       </c>
       <c r="L10">
-        <v>0.7503864413377119</v>
+        <v>0.7530756945425598</v>
       </c>
       <c r="M10">
-        <v>0.9030637524961651</v>
+        <v>0.9060502713889504</v>
       </c>
       <c r="N10">
-        <v>0.9030637524961651</v>
+        <v>0.9060502713889504</v>
       </c>
       <c r="O10">
-        <v>0.9030637524961651</v>
+        <v>0.9060502713889504</v>
       </c>
       <c r="P10">
-        <v>0.9347799446208034</v>
+        <v>0.9367645571086374</v>
       </c>
       <c r="Q10">
-        <v>0.9347799446208034</v>
+        <v>0.9367645571086374</v>
       </c>
       <c r="R10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="S10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="T10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="U10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="V10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="W10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="X10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="Y10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="Z10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="AA10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="AB10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="AC10">
-        <v>0.9720080347973122</v>
+        <v>0.9730499409288141</v>
       </c>
       <c r="AD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01918891912617822</v>
       </c>
       <c r="E11">
-        <v>0.4362252736432888</v>
+        <v>0.3222667368641126</v>
       </c>
       <c r="F11">
-        <v>0.5656297654332157</v>
+        <v>0.4417620170696021</v>
       </c>
       <c r="G11">
-        <v>0.7202911424550184</v>
+        <v>0.5763694518463209</v>
       </c>
       <c r="H11">
-        <v>0.7202911424550184</v>
+        <v>0.5817045664703266</v>
       </c>
       <c r="I11">
-        <v>0.8227142855084373</v>
+        <v>0.6850558800345236</v>
       </c>
       <c r="J11">
-        <v>0.8227142855084373</v>
+        <v>0.6970752984119249</v>
       </c>
       <c r="K11">
-        <v>0.8227142855084373</v>
+        <v>0.6970752984119249</v>
       </c>
       <c r="L11">
-        <v>0.8227142855084373</v>
+        <v>0.6970752984119249</v>
       </c>
       <c r="M11">
-        <v>0.8227142855084373</v>
+        <v>0.6970752984119249</v>
       </c>
       <c r="N11">
-        <v>0.891985886338566</v>
+        <v>0.7805907840126357</v>
       </c>
       <c r="O11">
-        <v>0.891985886338566</v>
+        <v>0.8091680892336095</v>
       </c>
       <c r="P11">
-        <v>0.9234301658375894</v>
+        <v>0.8700500504815324</v>
       </c>
       <c r="Q11">
-        <v>0.9234301658375894</v>
+        <v>0.8700500504815324</v>
       </c>
       <c r="R11">
-        <v>0.9234301658375894</v>
+        <v>0.9121177039552543</v>
       </c>
       <c r="S11">
-        <v>0.9234301658375894</v>
+        <v>0.9121177039552543</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5467526642668734</v>
       </c>
       <c r="F2">
-        <v>0.5129970922243497</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>51</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.6917476976449772</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5071712667743714</v>
-      </c>
       <c r="G3">
+        <v>700</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>51</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5348898382518613</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5218063706761914</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>51</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.5550294888732791</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5612744825639938</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>51</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5188266732272638</v>
       </c>
       <c r="F6">
-        <v>0.5480720886319248</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>51</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.5337701788060026</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5665935026793351</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>51</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.6056764218071611</v>
       </c>
       <c r="F8">
-        <v>0.5111029944632485</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>51</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.5572006287553068</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5084924810834329</v>
-      </c>
       <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>51</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.6335992922850187</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.6295230587770182</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>51</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5763694518463209</v>
       </c>
       <c r="F11">
-        <v>0.5656297654332157</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>51</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.8901990002598021</v>
+      </c>
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8929057601086396</v>
-      </c>
       <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>51</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7276661228871876</v>
       </c>
       <c r="F3">
-        <v>0.7854186308318822</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>51</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.8263431631068</v>
+      </c>
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.830403141104521</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>51</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.8728864596232884</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8719827653641243</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>51</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.8603488724527989</v>
+      </c>
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8607094506447748</v>
-      </c>
       <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>51</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.7445768018913934</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7778658122141721</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>51</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.7004581617536965</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7185710690552403</v>
-      </c>
       <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>51</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>0.7520988525919559</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7019616326607026</v>
-      </c>
       <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>51</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.7530756945425598</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7503864413377119</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>51</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7805907840126357</v>
       </c>
       <c r="F11">
-        <v>0.7202911424550184</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>51</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.8901990002598021</v>
+      </c>
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8929057601086396</v>
-      </c>
       <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>51</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9070916054340195</v>
       </c>
       <c r="F3">
-        <v>0.8696414706837604</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>51</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.8263431631068</v>
+      </c>
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.830403141104521</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>51</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.8728864596232884</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8719827653641243</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>51</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.8603488724527989</v>
+      </c>
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8607094506447748</v>
-      </c>
       <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>51</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.8376863717524196</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.803365686086204</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>51</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.8218807721616732</v>
+      </c>
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8221532217284744</v>
-      </c>
       <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>51</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8207966179779518</v>
       </c>
       <c r="F9">
-        <v>0.8559091248267929</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>51</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9060502713889504</v>
+      </c>
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9030637524961651</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>51</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8091680892336095</v>
       </c>
       <c r="F11">
-        <v>0.8227142855084373</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>51</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F2">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9999999999999999</v>
-      </c>
       <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>51</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9070916054340195</v>
       </c>
       <c r="F3">
-        <v>0.9096166105013463</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>51</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>17</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>51</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="F5">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>51</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F6">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9985238500608268</v>
-      </c>
       <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>51</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9229684087936131</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9464706244435391</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>51</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>19</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>51</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.9436441715715861</v>
+      </c>
+      <c r="F9">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9331546538845901</v>
-      </c>
       <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>51</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9060502713889504</v>
+      </c>
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9030637524961651</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>51</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.9121177039552543</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>700</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9234301658375894</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
-      </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>51</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
